--- a/tests/data/pump_example_with_missing_cells.xlsx
+++ b/tests/data/pump_example_with_missing_cells.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/playground/757/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA7B9E-34E6-FB4F-88FE-35571778DB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8EDA5-D7B7-A24C-A1D1-2BBAEEE8E1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="6440" windowWidth="54640" windowHeight="29820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
   <si>
     <t>role</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>Usage</t>
-  </si>
-  <si>
-    <t>I forgot to add view</t>
-  </si>
-  <si>
-    <t>year2</t>
   </si>
 </sst>
 </file>
@@ -678,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -701,31 +695,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -736,9 +710,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1157,9 +1128,8 @@
     <col min="7" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="70" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.3">
@@ -1527,99 +1497,61 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="O12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>1</v>
@@ -1632,16 +1564,16 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1649,17 +1581,15 @@
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>1</v>
@@ -1672,16 +1602,16 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1689,17 +1619,17 @@
         <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>1</v>
@@ -1715,13 +1645,13 @@
         <v>41</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1729,15 +1659,17 @@
         <v>41</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F16" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>1</v>
@@ -1753,28 +1685,96 @@
         <v>41</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>41</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1784,11 +1784,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1796,9 +1796,8 @@
     <col min="1" max="1" width="45.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="4" width="70" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="70" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
@@ -2227,72 +2226,55 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
@@ -2301,108 +2283,127 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>184</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>185</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>196</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
